--- a/src/test/resources/报备订单信息导出模板.xlsx
+++ b/src/test/resources/报备订单信息导出模板.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new-b2b\easyexcel\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468"/>
   </bookViews>
   <sheets>
     <sheet name="商品信息报备" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>注意事项：</t>
@@ -32,7 +36,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>标*列为必填项</t>
@@ -42,7 +45,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，其他列按照对应点单平台要求选填</t>
@@ -57,7 +59,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -66,7 +68,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>序号</t>
     </r>
@@ -78,7 +80,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -86,7 +88,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>类目</t>
     </r>
@@ -98,7 +100,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -106,7 +108,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>品牌</t>
     </r>
@@ -118,7 +120,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -126,7 +128,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>商品名称</t>
     </r>
@@ -138,7 +140,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -146,7 +148,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>型号</t>
     </r>
@@ -158,7 +160,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -166,7 +168,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>数量</t>
     </r>
@@ -178,7 +180,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -186,7 +188,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>单位</t>
     </r>
@@ -197,7 +199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">重量 </t>
     </r>
@@ -206,7 +208,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（kg）</t>
     </r>
@@ -218,7 +220,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -226,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">成交价
 </t>
@@ -235,7 +237,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（元）</t>
     </r>
@@ -244,7 +246,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>折扣后</t>
     </r>
@@ -256,7 +258,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -264,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">挂网价  </t>
     </r>
@@ -272,7 +274,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（元）</t>
     </r>
@@ -281,7 +283,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>销售价</t>
     </r>
@@ -293,7 +295,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -301,7 +303,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数规格</t>
     </r>
@@ -312,7 +314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">包装清单
 </t>
@@ -322,7 +324,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（广东省采必填）</t>
     </r>
@@ -332,7 +334,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">节能产品政府采购清单期数及所在页码、行数和证书号
 </t>
@@ -342,7 +344,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（广东省采必填）</t>
     </r>
@@ -352,7 +354,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">环保产品政府采购清单期数及所在页码、行数和证书号
 </t>
@@ -362,7 +364,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（广东省采必填）</t>
     </r>
@@ -373,7 +375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">产地
 </t>
@@ -383,7 +385,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（福建省、政采云平台必填）</t>
     </r>
@@ -394,7 +396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">生产商
 </t>
@@ -404,7 +406,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（福建省、政采云平台必填）</t>
     </r>
@@ -415,7 +417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">参考链接1
 </t>
@@ -425,7 +427,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（京东/妥了网）</t>
     </r>
@@ -436,7 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">参考链接2
 </t>
@@ -446,7 +448,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（产品官网）</t>
     </r>
@@ -457,7 +459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">参考链接3
 </t>
@@ -467,7 +469,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（天猫/苏宁/国美等）</t>
     </r>
@@ -478,7 +480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">产品参考图片（3-5张）
 </t>
@@ -488,7 +490,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>将图片缩小完全放置对应单元格内</t>
     </r>
@@ -537,8 +539,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,62 +552,59 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,10 +720,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,9 +745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,6 +756,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1019,237 +1021,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="7" style="2" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="2" customWidth="1"/>
-    <col min="20" max="20" width="29.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="29.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75" customHeight="1">
+    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="33.75" customHeight="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" ht="32.25" customHeight="1">
+    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" ht="26.25" customHeight="1">
+    <row r="4" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" ht="38.25" customHeight="1">
+    <row r="5" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="33" customHeight="1">
+    <row r="6" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:20" ht="33.75" customHeight="1">
+    <row r="7" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="1:20" ht="66" customHeight="1">
+    <row r="9" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1311,105 +1313,160 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="112.5" customHeight="1"/>
-    <row r="11" spans="1:20" ht="150.75" customHeight="1"/>
-    <row r="12" spans="1:20" ht="159.75" customHeight="1"/>
-    <row r="13" spans="1:20" ht="50.1" customHeight="1"/>
-    <row r="14" spans="1:20" ht="50.1" customHeight="1"/>
-    <row r="15" spans="1:20" ht="50.1" customHeight="1"/>
-    <row r="16" spans="1:20" ht="50.1" customHeight="1"/>
-    <row r="17" ht="50.1" customHeight="1"/>
-    <row r="18" ht="50.1" customHeight="1"/>
-    <row r="19" ht="50.1" customHeight="1"/>
-    <row r="20" ht="50.1" customHeight="1"/>
-    <row r="21" ht="50.1" customHeight="1"/>
-    <row r="22" ht="50.1" customHeight="1"/>
-    <row r="23" ht="50.1" customHeight="1"/>
-    <row r="24" ht="50.1" customHeight="1"/>
-    <row r="25" ht="50.1" customHeight="1"/>
-    <row r="26" ht="50.1" customHeight="1"/>
-    <row r="27" ht="50.1" customHeight="1"/>
-    <row r="28" ht="50.1" customHeight="1"/>
-    <row r="29" ht="50.1" customHeight="1"/>
-    <row r="30" ht="50.1" customHeight="1"/>
-    <row r="31" ht="50.1" customHeight="1"/>
-    <row r="32" ht="50.1" customHeight="1"/>
-    <row r="33" ht="50.1" customHeight="1"/>
-    <row r="34" ht="50.1" customHeight="1"/>
-    <row r="35" ht="50.1" customHeight="1"/>
-    <row r="36" ht="50.1" customHeight="1"/>
-    <row r="37" ht="50.1" customHeight="1"/>
-    <row r="38" ht="50.1" customHeight="1"/>
-    <row r="39" ht="50.1" customHeight="1"/>
-    <row r="40" ht="50.1" customHeight="1"/>
-    <row r="41" ht="50.1" customHeight="1"/>
-    <row r="42" ht="50.1" customHeight="1"/>
-    <row r="43" ht="50.1" customHeight="1"/>
-    <row r="44" ht="50.1" customHeight="1"/>
-    <row r="45" ht="50.1" customHeight="1"/>
-    <row r="46" ht="50.1" customHeight="1"/>
-    <row r="47" ht="50.1" customHeight="1"/>
-    <row r="48" ht="50.1" customHeight="1"/>
-    <row r="49" ht="50.1" customHeight="1"/>
-    <row r="50" ht="50.1" customHeight="1"/>
-    <row r="51" ht="50.1" customHeight="1"/>
-    <row r="52" ht="50.1" customHeight="1"/>
-    <row r="53" ht="50.1" customHeight="1"/>
-    <row r="54" ht="50.1" customHeight="1"/>
-    <row r="55" ht="50.1" customHeight="1"/>
-    <row r="56" ht="50.1" customHeight="1"/>
-    <row r="57" ht="50.1" customHeight="1"/>
-    <row r="58" ht="50.1" customHeight="1"/>
-    <row r="59" ht="50.1" customHeight="1"/>
-    <row r="60" ht="50.1" customHeight="1"/>
-    <row r="61" ht="50.1" customHeight="1"/>
-    <row r="62" ht="50.1" customHeight="1"/>
-    <row r="63" ht="50.1" customHeight="1"/>
-    <row r="64" ht="50.1" customHeight="1"/>
-    <row r="65" ht="50.1" customHeight="1"/>
-    <row r="66" ht="50.1" customHeight="1"/>
-    <row r="67" ht="50.1" customHeight="1"/>
-    <row r="68" ht="50.1" customHeight="1"/>
-    <row r="69" ht="50.1" customHeight="1"/>
-    <row r="70" ht="50.1" customHeight="1"/>
-    <row r="71" ht="50.1" customHeight="1"/>
-    <row r="72" ht="50.1" customHeight="1"/>
-    <row r="73" ht="50.1" customHeight="1"/>
-    <row r="74" ht="50.1" customHeight="1"/>
-    <row r="75" ht="50.1" customHeight="1"/>
-    <row r="76" ht="50.1" customHeight="1"/>
-    <row r="77" ht="50.1" customHeight="1"/>
-    <row r="78" ht="50.1" customHeight="1"/>
-    <row r="79" ht="50.1" customHeight="1"/>
-    <row r="80" ht="50.1" customHeight="1"/>
-    <row r="81" ht="50.1" customHeight="1"/>
-    <row r="82" ht="50.1" customHeight="1"/>
-    <row r="83" ht="50.1" customHeight="1"/>
-    <row r="84" ht="50.1" customHeight="1"/>
-    <row r="85" ht="50.1" customHeight="1"/>
-    <row r="86" ht="50.1" customHeight="1"/>
-    <row r="87" ht="50.1" customHeight="1"/>
-    <row r="88" ht="50.1" customHeight="1"/>
-    <row r="89" ht="50.1" customHeight="1"/>
-    <row r="90" ht="50.1" customHeight="1"/>
-    <row r="91" ht="50.1" customHeight="1"/>
-    <row r="92" ht="50.1" customHeight="1"/>
-    <row r="93" ht="50.1" customHeight="1"/>
-    <row r="94" ht="50.1" customHeight="1"/>
-    <row r="95" ht="50.1" customHeight="1"/>
-    <row r="96" ht="50.1" customHeight="1"/>
-    <row r="97" ht="50.1" customHeight="1"/>
-    <row r="98" ht="50.1" customHeight="1"/>
-    <row r="99" ht="50.1" customHeight="1"/>
-    <row r="100" ht="50.1" customHeight="1"/>
+    <row r="10" spans="1:20" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13</v>
+      </c>
+      <c r="N10" s="2">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>17</v>
+      </c>
+      <c r="R10" s="2">
+        <v>18</v>
+      </c>
+      <c r="S10" s="2">
+        <v>19</v>
+      </c>
+      <c r="T10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="150.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="159.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:L3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:T6"/>
     <mergeCell ref="A7:T7"/>
@@ -1421,6 +1478,12 @@
     <mergeCell ref="C5:T5"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="N4:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/报备订单信息导出模板.xlsx
+++ b/src/test/resources/报备订单信息导出模板.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new-b2b\easyexcel\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468"/>
   </bookViews>
@@ -26,6 +21,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>注意事项：</t>
@@ -36,6 +32,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>标*列为必填项</t>
@@ -45,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，其他列按照对应点单平台要求选填</t>
@@ -539,7 +537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,6 +556,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,6 +582,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,6 +605,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,6 +763,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>134023</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14092518" y="4428566"/>
+          <a:ext cx="9502140" cy="6035040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,7 +1075,7 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1370,9 +1420,6 @@
       </c>
       <c r="S10" s="2">
         <v>19</v>
-      </c>
-      <c r="T10" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="150.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1488,5 +1535,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>